--- a/wash_P/HON.xlsx
+++ b/wash_P/HON.xlsx
@@ -91046,7 +91046,7 @@
         <v>0</v>
       </c>
       <c r="LE29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF29" t="n">
         <v>0</v>
